--- a/Assets/donnees/test1.xlsx
+++ b/Assets/donnees/test1.xlsx
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>9.92</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="3">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.73</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="4">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>6.47</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="5">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>5.5</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="6">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>8.390000000000001</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>0.8100000000000001</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.79</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>4.59</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>8.210000000000001</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>6.73</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="12">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>0.01</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.74</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.27</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>7.59</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="16">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>7.44</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.78</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>7.99</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>9.98</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>9.25</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="22">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="23">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>8.880000000000001</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.41</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="25">
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>5.13</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="26">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.4</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="27">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>8.449999999999999</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="28">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.58</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="29">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>9.279999999999999</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="30">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.91</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="31">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.01</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="32">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>5.09</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="33">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.73</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="34">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>8</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="35">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.71</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="36">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.15</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>6.33</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="38">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.14</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="39">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.73</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="40">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>9.01</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="41">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>7.7</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="43">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>9.43</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="44">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.19</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="45">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>6.22</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="46">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>6.06</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="47">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>5.3</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.33</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="49">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.02</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="50">
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>6.17</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="51">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>6.4</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="52">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.43</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="53">
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.12</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="54">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>6.09</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="55">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>9.380000000000001</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.65</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="57">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.94</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="58">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>9.390000000000001</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="59">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.28</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="60">
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>9.51</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="61">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>8.109999999999999</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="62">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>7.99</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="63">
@@ -6104,7 +6104,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>8.93</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.55</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="65">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>6.26</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="66">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>8.99</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="68">
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>9.52</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="69">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.24</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="70">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.81</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="71">
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.01</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="72">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.28</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="73">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>1.51</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="74">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>9.960000000000001</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="75">
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.25</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="76">
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>6.76</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="78">
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>0.09</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="79">
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>6.75</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="80">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>0.76</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="81">
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>9.68</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="82">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.5</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="83">
@@ -7914,7 +7914,7 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="84">
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.35</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="85">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.87</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="86">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>6.42</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="87">
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>6.11</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="88">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.3</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="89">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>9.59</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="90">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>7.49</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="92">
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.43</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="93">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>6.46</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="94">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>0.82</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="95">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>7.91</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="96">
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>9.539999999999999</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="97">
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.65</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="98">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.42</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="99">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>9.4</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>0.37</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="101">
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.38</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="102">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.1</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="103">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="104">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.1</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="105">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="106">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>0.06</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="107">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>8.77</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="108">
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>0.19</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="109">
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>7.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="110">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.13</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="111">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>8.73</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="112">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1.54</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="113">
@@ -10734,7 +10734,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.2</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="114">
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.59</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="115">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.64</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="116">
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>7.99</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="117">
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>6.65</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="118">
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>5.93</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="119">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>1.85</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="120">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.42</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="121">
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>3.78</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="122">
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.94</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="123">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.25</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="124">
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.98</v>
+        <v>9.81</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/donnees/test1.xlsx
+++ b/Assets/donnees/test1.xlsx
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5.36</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>7.21</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="4">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.48</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>7.49</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.24</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>4.52</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5.07</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>6.88</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>6.23</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="12">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>6.65</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.12</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>9.640000000000001</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="15">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>6.88</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="16">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8.300000000000001</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="18">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>0.95</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="19">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8.630000000000001</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>0.36</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="21">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>7.47</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="22">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.54</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="23">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.17</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.11</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="25">
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>8.98</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="26">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="27">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.66</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="28">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>5.67</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>1.09</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="30">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.02</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="31">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>0.61</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="32">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>7.79</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="33">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.56</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="34">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.17</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="35">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.67</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="36">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>8.390000000000001</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="37">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.03</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="38">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>5.12</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="39">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>7.41</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="40">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.95</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="41">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>9.949999999999999</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="42">
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>0.31</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="43">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>9.76</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="44">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>6.81</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="45">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.47</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="46">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.21</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="47">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>8.619999999999999</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="48">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.88</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="49">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="50">
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>0.54</v>
+        <v>9.49</v>
       </c>
     </row>
     <row r="51">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.18</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="52">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>7.08</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="53">
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.36</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="54">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.73</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="55">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>8.119999999999999</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="56">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>6.12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.15</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="58">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.68</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="59">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.53</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="60">
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>8.07</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.16</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="62">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>8.23</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="63">
@@ -6104,7 +6104,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>9.710000000000001</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>0.76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.92</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>9.109999999999999</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="67">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>8.5</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="68">
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.11</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="69">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="70">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>7.08</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="71">
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>5.6</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="72">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.59</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="73">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="74">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.02</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="75">
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.44</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="76">
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>10</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="77">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>9.42</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="78">
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.98</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="79">
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.32</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="80">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>6.01</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="81">
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>7.89</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="82">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>6.83</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="83">
@@ -7914,7 +7914,7 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>8.25</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="84">
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>9.94</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="85">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>9.619999999999999</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="86">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.29</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="87">
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.6</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="88">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>5.51</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="89">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.47</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="90">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="91">
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.47</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="92">
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>6.66</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="93">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>6.14</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="94">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.21</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="95">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>7.8</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="96">
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.56</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="97">
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>9.59</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="98">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.68</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="99">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>8.130000000000001</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="100">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>9.23</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="101">
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>6.74</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="102">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>6.16</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="103">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>7.3</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="104">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.84</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="105">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>0.31</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="106">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>5.46</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="107">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.62</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="108">
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.38</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="109">
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>0.12</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="110">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>6.65</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="111">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>9.890000000000001</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="112">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>9.960000000000001</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="113">
@@ -10734,7 +10734,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.56</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>1.25</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="115">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.06</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="116">
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.67</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="117">
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>1.21</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="118">
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>1.82</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="119">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.83</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="120">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.37</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="121">
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>3.89</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="122">
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>3.19</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="123">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>5.57</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="124">
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>9.81</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/donnees/test1.xlsx
+++ b/Assets/donnees/test1.xlsx
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>8.970000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.05</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="4">
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.224014336917563</v>
+        <v>0.2240143369175627</v>
       </c>
       <c r="G4" t="n">
         <v>2000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>0.38</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.77598566308244</v>
+        <v>4.775985663082437</v>
       </c>
       <c r="G5" t="n">
         <v>21320</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>8.289999999999999</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="6">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.462365591397849</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="G6" t="n">
         <v>2064</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>0.38</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5376344086021509</v>
+        <v>0.5376344086021505</v>
       </c>
       <c r="G7" t="n">
         <v>2400</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.82</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>9.890000000000001</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>6.41</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.14056394253746</v>
+        <v>0.1405639425374603</v>
       </c>
       <c r="G11" t="n">
         <v>10000</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.37</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.14056394253746</v>
+        <v>0.1405639425374603</v>
       </c>
       <c r="G12" t="n">
         <v>10000</v>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>9.869999999999999</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="13">
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.71198969591757</v>
+        <v>3.711989695917568</v>
       </c>
       <c r="G13" t="n">
         <v>132570</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>8.619999999999999</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.79</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="15">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>7.07</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>6.77</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="18">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.54</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="19">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8.23</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>8.75</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="21">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.81</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>8.43</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="23">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.7000599880024</v>
+        <v>3.700059988002399</v>
       </c>
       <c r="G23" t="n">
         <v>12336</v>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>9.619999999999999</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="24">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.2999400119976</v>
+        <v>0.2999400119976005</v>
       </c>
       <c r="G24" t="n">
         <v>1000</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.85</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>5.05</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="26">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.63998559942398</v>
+        <v>1.639985599423977</v>
       </c>
       <c r="G26" t="n">
         <v>13666</v>
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>6.17</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="27">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.00024003840615</v>
+        <v>2.000240038406145</v>
       </c>
       <c r="G27" t="n">
         <v>8333</v>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>7.52</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="28">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>8.470000000000001</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="29">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.95</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="30">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.28</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="31">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.20518744093248</v>
+        <v>2.205187440932479</v>
       </c>
       <c r="G31" t="n">
         <v>21000</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.48</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="32">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.76</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="33">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.136211945787646</v>
+        <v>0.1362119457876456</v>
       </c>
       <c r="G33" t="n">
         <v>2000</v>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.66</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>9.94</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="35">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>0.71</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="36">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.9</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.53</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="38">
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.305810397553517</v>
+        <v>0.3058103975535168</v>
       </c>
       <c r="G38" t="n">
         <v>3000</v>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>9.15</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="39">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="40">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.22</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>9.9</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="42">
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>0.88</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="43">
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9000900090009</v>
+        <v>0.9000900090009001</v>
       </c>
       <c r="G43" t="n">
         <v>3000</v>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>9.630000000000001</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="44">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.69</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4.74525474525475</v>
+        <v>4.745254745254745</v>
       </c>
       <c r="G45" t="n">
         <v>4750</v>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>7.37</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="46">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.9</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="47">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6.32667332667333</v>
+        <v>6.326673326673327</v>
       </c>
       <c r="G47" t="n">
         <v>6333</v>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.43</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="48">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.240009600384015</v>
+        <v>0.2400096003840154</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>7.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="49">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="50">
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>9.49</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="51">
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.216778668978972</v>
+        <v>0.2167786689789725</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.32</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="52">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>8.26</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="53">
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>15.2417582417582</v>
+        <v>15.24175824175824</v>
       </c>
       <c r="G53" t="n">
         <v>15257</v>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>6.63</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="54">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.578201792425557</v>
+        <v>0.5782017924255565</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.26</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="55">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.06</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="56">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>34.963036963037</v>
+        <v>34.96303696303696</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>8</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="57">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.08</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="58">
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.416016640665627</v>
+        <v>0.4160166406656266</v>
       </c>
       <c r="G58" t="n">
         <v>4000</v>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.53</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="59">
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.58394008737258</v>
+        <v>2.583940087372582</v>
       </c>
       <c r="G59" t="n">
         <v>12421</v>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>9.300000000000001</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="60">
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.148936962430651</v>
+        <v>0.1489369624306512</v>
       </c>
       <c r="G60" t="n">
         <v>4000</v>
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>9.289999999999999</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="61">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.85105749180816</v>
+        <v>1.851057491808162</v>
       </c>
       <c r="G61" t="n">
         <v>24856</v>
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>0.52</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="62">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.99</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="63">
@@ -6104,7 +6104,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>8.869999999999999</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>8</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="65">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>9</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="66">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>6.84</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="67">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>0.21</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="68">
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>8.27</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="69">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.8</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="70">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.16</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="71">
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.35</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="72">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>0.65</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="73">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>0.85</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="74">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.45</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="75">
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>6.52</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="76">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.71198156682028</v>
+        <v>2.711981566820277</v>
       </c>
       <c r="G76" t="n">
         <v>18832</v>
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>9.31</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="77">
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.28801843317972</v>
+        <v>1.288018433179724</v>
       </c>
       <c r="G77" t="n">
         <v>4472</v>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.28</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="78">
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.02</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="79">
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.95</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="80">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>7.38</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="81">
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.300085494442861</v>
+        <v>0.3000854944428612</v>
       </c>
       <c r="G81" t="n">
         <v>3159</v>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.9</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="82">
@@ -7754,7 +7754,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.69991450555714</v>
+        <v>1.699914505557139</v>
       </c>
       <c r="G82" t="n">
         <v>5965</v>
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>7.63</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="83">
@@ -7914,7 +7914,7 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>8.91</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="84">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8.00067204301075</v>
+        <v>8.000672043010752</v>
       </c>
       <c r="G84" t="n">
         <v>666680</v>
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>7.34</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="85">
@@ -8036,7 +8036,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4.00804025751314</v>
+        <v>4.008040257513143</v>
       </c>
       <c r="G85" t="n">
         <v>3991960</v>
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>7.99</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="86">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>9.19</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="87">
@@ -8224,7 +8224,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4.00038402457757</v>
+        <v>4.000384024577573</v>
       </c>
       <c r="G87" t="n">
         <v>625020</v>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.29</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="88">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="89">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>7.13</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="90">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>8.84</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="91">
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.14</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="92">
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>0.51</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="93">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>9.33</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="94">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.95</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="95">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.11</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="96">
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>9.73</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="97">
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>8.57</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="98">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>6.11</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="99">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.57</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>0.3</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="101">
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="102">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.21</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="103">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.11</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="104">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>9.039999999999999</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="105">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.8</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="106">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>7.34</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="107">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.18</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="108">
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.92</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="109">
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>8.42</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="110">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>6.11</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="111">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>5.55</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="112">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.06</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="113">
@@ -10734,7 +10734,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>8.789999999999999</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="114">
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>6.92</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="115">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>1.53</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>0.68</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="117">
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.35</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="118">
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>4.55</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="119">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="120">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.74</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="121">
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>4.5</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="122">
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="123">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>8.050000000000001</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="124">
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>0.57</v>
+        <v>6.73</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/donnees/test1.xlsx
+++ b/Assets/donnees/test1.xlsx
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>0.22</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.67</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="5">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>9.85</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="6">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.7</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>7.36</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.13</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>4.17</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>9.470000000000001</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.7</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="12">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.71</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.45</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="16">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>6.07</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.74</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>8.42</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="19">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>5.5</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.02</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="21">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>8.380000000000001</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="23">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.36</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>8.199999999999999</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="25">
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>5.19</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="26">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.13</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="27">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.18</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="28">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>7.64</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>5.05</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="30">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>7.02</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="31">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>8.92</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="32">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>1.72</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="33">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>9.960000000000001</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="34">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>9.31</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="35">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>6.68</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="36">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>8.029999999999999</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>0.09</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="38">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.54</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="39">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>1.31</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="40">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>9.98</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="42">
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>9.44</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="43">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.58</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="44">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>8.289999999999999</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="45">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.94</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="46">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.13</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="47">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.08</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="48">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.64</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="49">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>5.32</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="50">
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.03</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="51">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>0.02</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="52">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.17</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.09</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="54">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.32</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="55">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>9.1</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="56">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>6.42</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="57">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>7.65</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="58">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.13</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="59">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.66</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="60">
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.63</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="61">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.92</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="62">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>7.46</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -6104,7 +6104,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>9.630000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="64">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>0.78</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="65">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>0.52</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>7.59</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="68">
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.74</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="69">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.57</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="70">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>4.27</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="71">
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4.77</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="72">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.64</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="73">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>8.93</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="74">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>9.039999999999999</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="75">
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.12</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="76">
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.69</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="77">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.25</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="78">
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>9.43</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="79">
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>9.68</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="80">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>9.24</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="81">
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>7.79</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="82">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>7.05</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="83">
@@ -7914,7 +7914,7 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>0.85</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="84">
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>6.35</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="85">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="86">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.43</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="87">
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>7.93</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="88">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.8</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="89">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.97</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="90">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>7.24</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="91">
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.27</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="92">
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.38</v>
+        <v>8.630000000000001</v>
       </c>
     </row>
     <row r="93">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>9.73</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="94">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.59</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="95">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.76</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="96">
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.93</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="97">
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.4</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="98">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.74</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="99">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>9.880000000000001</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="100">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.11</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="101">
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.5</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="102">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>6.14</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="103">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>1.89</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="104">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>1.86</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="105">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.69</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>5.33</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="107">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>0.8100000000000001</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="108">
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>0.01</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="109">
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.59</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="110">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>4.7</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="111">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>0.61</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="112">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.17</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="113">
@@ -10734,7 +10734,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>7.51</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="114">
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.76</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="115">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>9.630000000000001</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="116">
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>7.55</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="117">
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>5.04</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>8.57</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="119">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.75</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="120">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.9</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="121">
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>6.34</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="122">
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="123">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>9.66</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="124">
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>6.73</v>
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/donnees/test1.xlsx
+++ b/Assets/donnees/test1.xlsx
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>8.140000000000001</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="3">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>0.66</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="4">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.02</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="5">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.9</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="6">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>6.14</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.14</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>8.31</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>8.529999999999999</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>6.71</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="12">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>6.33</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.51</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>0.09</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="15">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>7.15</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="16">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.06</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>0.3</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="18">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.44</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="19">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.94</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>8.94</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="21">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>8.029999999999999</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="22">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.84</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="23">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.07</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.92</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="25">
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.88</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="26">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>0.42</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="27">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>8.83</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="28">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>8.949999999999999</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="29">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.03</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="30">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="31">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.58</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="32">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.11</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="33">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>8.59</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="34">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.22</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="35">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.18</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="36">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>9.130000000000001</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="37">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>6.09</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="38">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>6.63</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>6.53</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="40">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>0.6</v>
+        <v>9.609999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.89</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>0.97</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="43">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.03</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="44">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.67</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.13</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="46">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.43</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="47">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>0.28</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="48">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.07</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>6.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="50">
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>7.38</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="51">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>7.39</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="52">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>9.529999999999999</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="53">
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.93</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="54">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="55">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="56">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>0.79</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="57">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>6.35</v>
+        <v>8.69</v>
       </c>
     </row>
     <row r="58">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.4</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="59">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.12</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="60">
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>0.12</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="61">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>5.48</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="62">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>8.800000000000001</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="63">
@@ -6104,7 +6104,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>0.99</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="64">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.05</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="65">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>8.199999999999999</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="66">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>8.289999999999999</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="67">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>1.48</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="68">
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.01</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="69">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>5.98</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="71">
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>8.09</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="72">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.21</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="73">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>0.76</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="74">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>6.52</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="75">
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>0.55</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="76">
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.46</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="77">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>0.19</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="78">
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.35</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="79">
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>5.51</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="80">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.69</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="81">
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>9.58</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.08</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="83">
@@ -7914,7 +7914,7 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.87</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="84">
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.59</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="85">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.92</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="86">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>7.75</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="87">
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>7.78</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="88">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>6.55</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="89">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>8.779999999999999</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="90">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.47</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="91">
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>0.99</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="92">
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>8.630000000000001</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="93">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>8.859999999999999</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="94">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.79</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="95">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.98</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="96">
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.28</v>
+        <v>9.960000000000001</v>
       </c>
     </row>
     <row r="97">
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>7.11</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="98">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.08</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="99">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.92</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="100">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>9.23</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="101">
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>5.24</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="102">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.8</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="103">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>5.06</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="104">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>6.08</v>
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="105">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>8.699999999999999</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="106">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.46</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="107">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>7.91</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="108">
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>0.83</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="109">
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>9.94</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="110">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>1.13</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="111">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.7</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="112">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>7.19</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="113">
@@ -10734,7 +10734,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.59</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="114">
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>1.06</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="115">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="116">
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>1.05</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="117">
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="118">
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.31</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="119">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>1.43</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="120">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>8.539999999999999</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="121">
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>9.08</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="122">
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>1.77</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="123">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>4.53</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="124">
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>1.95</v>
+        <v>9.25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/donnees/test1.xlsx
+++ b/Assets/donnees/test1.xlsx
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5.88</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="3">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.82</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="4">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.33</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="5">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>9.33</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.64</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>9.289999999999999</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>9.56</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>6.9</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.76</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="12">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>9.83</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6.56</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>7.13</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="15">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.96</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>9.289999999999999</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>0.04</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="18">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.23</v>
+        <v>4.57</v>
       </c>
     </row>
     <row r="19">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8.58</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>0.45</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="21">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.56</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.34</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="23">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.57</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>5.64</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="25">
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>9.1</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="26">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="27">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.77</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="28">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>0.73</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="30">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.17</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="31">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.9</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="32">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>5.6</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="33">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>5.33</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="34">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="35">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.39</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="36">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>8.58</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="37">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.79</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="38">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>8.039999999999999</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="39">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.33</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="40">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>9.609999999999999</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="41">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>0.6899999999999999</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="42">
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>0.61</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="43">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.77</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="45">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>6.88</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="46">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.24</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="47">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>7.08</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="48">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>8.699999999999999</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="49">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.8</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="50">
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.26</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="51">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="52">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.29</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="53">
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.37</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="54">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.2</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="55">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.35</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="56">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>7.3</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="57">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>8.69</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="58">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>6.72</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="59">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>6.16</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="60">
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.78</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="61">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>9.359999999999999</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="62">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.31</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="63">
@@ -6104,7 +6104,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.59</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.88</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="65">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>6.53</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="66">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>8.44</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="67">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>5.56</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="68">
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>7.27</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="69">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="70">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>1.73</v>
+        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.87</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="72">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="73">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>6.6</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="74">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.8</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="75">
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>9.31</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="76">
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>7.44</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="77">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>7.84</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="78">
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>4.44</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="79">
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.07</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="80">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.97</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="81">
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>0.4</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="82">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.27</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="83">
@@ -7914,7 +7914,7 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.26</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="84">
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.9</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="85">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>0.16</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="86">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.57</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="87">
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>9.59</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="88">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>0.71</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="89">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>7.04</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="90">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.8</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="91">
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.88</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="92">
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.53</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="93">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>3.28</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="94">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.4</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="95">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>6.71</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="96">
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>9.960000000000001</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="97">
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>6.43</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="98">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.98</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="99">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>8.31</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="100">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.63</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="101">
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.37</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="102">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.46</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="103">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.56</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="104">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>9.890000000000001</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="105">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>9.029999999999999</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="106">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.72</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="107">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="108">
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.78</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="109">
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>1.11</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="110">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>8.390000000000001</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="111">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>5.51</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="112">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>1.29</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="113">
@@ -10734,7 +10734,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.94</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="114">
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>9.529999999999999</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="115">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.37</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="116">
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.46</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="117">
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>4.63</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>5.06</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="119">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>9.76</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="120">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.49</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="121">
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>6.55</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="122">
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>5.48</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="123">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>5.23</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="124">
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>9.25</v>
+        <v>4.03</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/donnees/test1.xlsx
+++ b/Assets/donnees/test1.xlsx
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>7.91</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>5.22</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="4">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.57</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="5">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>0.62</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="6">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>8.25</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="7">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>6.61</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.35</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.67</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.81</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.74</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>8.539999999999999</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>9.449999999999999</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="15">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>0.8100000000000001</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>7.62</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8.77</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.57</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="19">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.54</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="21">
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>9.859999999999999</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="22">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>8.27</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="23">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="24">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25">
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="26">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.66</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="27">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>5.71</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="28">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>0.08</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="29">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>9.67</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="30">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.53</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="31">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.49</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="32">
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.74</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>7.64</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="34">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.68</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="35">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.14</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="36">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>8.83</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="38">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.93</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="39">
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.99</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="40">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>8.18</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.84</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="42">
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>8.01</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="43">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>8.359999999999999</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="44">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>0.02</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="45">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>8.01</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="46">
@@ -4548,7 +4548,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.03</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="47">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>7.17</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="48">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>5.91</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="49">
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.47</v>
+        <v>7.29</v>
       </c>
     </row>
     <row r="50">
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.88</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="51">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.75</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="52">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.85</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="53">
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.6</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="54">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.82</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>8.56</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="56">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>5.77</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="57">
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>9.16</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="58">
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.35</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="59">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.49</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="60">
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>0.45</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="61">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.72</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="62">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>0.55</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="63">
@@ -6104,7 +6104,7 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>8.880000000000001</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="64">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.54</v>
+        <v>6.28</v>
       </c>
     </row>
     <row r="65">
@@ -6288,7 +6288,7 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="66">
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.97</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="67">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.82</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="68">
@@ -6564,7 +6564,7 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>7.17</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="69">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.94</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>9.789999999999999</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="71">
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>9.9</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="72">
@@ -6918,7 +6918,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.63</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="73">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.23</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.01</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="75">
@@ -7168,7 +7168,7 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>8.07</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="76">
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>6.38</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="77">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.16</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="78">
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>0.71</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="79">
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>9.66</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="80">
@@ -7628,7 +7628,7 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>5.45</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.28</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="82">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>7.12</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="83">
@@ -7914,7 +7914,7 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>7.9</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>8.44</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="85">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>9.73</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="86">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.1</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="87">
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.9</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="88">
@@ -8384,7 +8384,7 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.99</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="89">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.3</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="90">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.95</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="91">
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>8.68</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="92">
@@ -8760,7 +8760,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.42</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="93">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>0.63</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="94">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>8.66</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="95">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>9.949999999999999</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="96">
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.96</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="97">
@@ -9230,7 +9230,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>9.300000000000001</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="98">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>6.52</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="99">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.37</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="100">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.51</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="101">
@@ -9606,7 +9606,7 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>6.53</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="102">
@@ -9700,7 +9700,7 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.88</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="103">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="104">
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>9.470000000000001</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="105">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>6.9</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="107">
@@ -10170,7 +10170,7 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>1.85</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="108">
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.11</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="109">
@@ -10358,7 +10358,7 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.33</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="110">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>1.63</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="111">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>6.17</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="112">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.59</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="113">
@@ -10734,7 +10734,7 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>0.26</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="114">
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>8.26</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="115">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.46</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="116">
@@ -11016,7 +11016,7 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>9.19</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="117">
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>8.199999999999999</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="118">
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="119">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>4.21</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="120">
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.63</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="121">
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>2.23</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="122">
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>4.93</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="123">
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.62</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="124">
@@ -11768,7 +11768,7 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.03</v>
+        <v>7.28</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/donnees/test1.xlsx
+++ b/Assets/donnees/test1.xlsx
@@ -471,67 +471,67 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Couverture</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Code PF</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Type Blister</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Dim blister</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Nbre d'unité / blstr</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Réf format</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Réf formage</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Réf Souflage</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Réf Alimentation Auto</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Réf scellage Sup</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Réf scellage inf</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Réf Refroidissement</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Machines</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Couverture</t>
         </is>
       </c>
     </row>
@@ -565,10 +565,8 @@
       <c r="G2" t="n">
         <v>25532</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -625,8 +623,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v>0.08</v>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -659,10 +659,8 @@
       <c r="G3" t="n">
         <v>51064</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -719,8 +717,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v>1.35</v>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -748,31 +748,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.2240143369175627</v>
+        <v>0.224014336917563</v>
       </c>
       <c r="G4" t="n">
         <v>2000</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>PF3148</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>14</v>
-      </c>
-      <c r="L4" t="n">
-        <v>152</v>
       </c>
       <c r="M4" t="n">
         <v>152</v>
@@ -783,26 +783,26 @@
       <c r="O4" t="n">
         <v>152</v>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P4" t="n">
         <v>152</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>152</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T4" t="n">
-        <v>3.91</v>
       </c>
     </row>
     <row r="5">
@@ -830,31 +830,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4.775985663082437</v>
+        <v>4.77598566308244</v>
       </c>
       <c r="G5" t="n">
         <v>21320</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>PF2272</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>14</v>
-      </c>
-      <c r="L5" t="n">
-        <v>152</v>
       </c>
       <c r="M5" t="n">
         <v>152</v>
@@ -865,26 +865,26 @@
       <c r="O5" t="n">
         <v>152</v>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P5" t="n">
         <v>152</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>152</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T5" t="n">
-        <v>5.86</v>
       </c>
     </row>
     <row r="6">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.4623655913978494</v>
+        <v>0.462365591397849</v>
       </c>
       <c r="G6" t="n">
         <v>2064</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>PF2274</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>14</v>
-      </c>
-      <c r="L6" t="n">
-        <v>152</v>
       </c>
       <c r="M6" t="n">
         <v>152</v>
@@ -947,26 +947,26 @@
       <c r="O6" t="n">
         <v>152</v>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P6" t="n">
         <v>152</v>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>152</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T6" t="n">
-        <v>6.64</v>
       </c>
     </row>
     <row r="7">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5376344086021505</v>
+        <v>0.5376344086021509</v>
       </c>
       <c r="G7" t="n">
         <v>2400</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>PF3139</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>14</v>
-      </c>
-      <c r="L7" t="n">
-        <v>152</v>
       </c>
       <c r="M7" t="n">
         <v>152</v>
@@ -1029,26 +1029,26 @@
       <c r="O7" t="n">
         <v>152</v>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P7" t="n">
         <v>152</v>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>152</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T7" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="8">
@@ -1081,26 +1081,26 @@
       <c r="G8" t="n">
         <v>8928</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>PF2270</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>14</v>
-      </c>
-      <c r="L8" t="n">
-        <v>139</v>
       </c>
       <c r="M8" t="n">
         <v>139</v>
@@ -1108,31 +1108,31 @@
       <c r="N8" t="n">
         <v>139</v>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" t="n">
+        <v>139</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>BOITE A BROSSE</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>139</v>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T8" t="n">
-        <v>7.27</v>
       </c>
     </row>
     <row r="9">
@@ -1165,26 +1165,26 @@
       <c r="G9" t="n">
         <v>20142</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>PF2821</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>146</v>
       </c>
       <c r="M9" t="n">
         <v>146</v>
@@ -1195,26 +1195,26 @@
       <c r="O9" t="n">
         <v>146</v>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P9" t="n">
         <v>146</v>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>146</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T9" t="n">
-        <v>4.67</v>
       </c>
     </row>
     <row r="10">
@@ -1247,26 +1247,26 @@
       <c r="G10" t="n">
         <v>20142</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>PF2824</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>146</v>
       </c>
       <c r="M10" t="n">
         <v>146</v>
@@ -1277,26 +1277,26 @@
       <c r="O10" t="n">
         <v>146</v>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P10" t="n">
         <v>146</v>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>146</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T10" t="n">
-        <v>9.51</v>
       </c>
     </row>
     <row r="11">
@@ -1324,71 +1324,71 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.1405639425374603</v>
+        <v>0.14056394253746</v>
       </c>
       <c r="G11" t="n">
         <v>10000</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>PF2042</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>14</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>23,24 Valsartan 40 /C16</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>M3/C16</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>M1/C16</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>Système d'alimenataion de tubes blister</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>M10/C16</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>M11/C16</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>M12/C16</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T11" t="n">
-        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1416,71 +1416,71 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.1405639425374603</v>
+        <v>0.14056394253746</v>
       </c>
       <c r="G12" t="n">
         <v>10000</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>PF2785</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>14</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>23,24 Valsartan 40 /C16</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>M3/C16</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>M1/C16</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Système d'alimenataion de tubes blister</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>M10/C16</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>M11/C16</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>M12/C16</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T12" t="n">
-        <v>7.94</v>
       </c>
     </row>
     <row r="13">
@@ -1508,71 +1508,71 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.711989695917568</v>
+        <v>3.71198969591757</v>
       </c>
       <c r="G13" t="n">
         <v>132570</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>PF2043</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>14</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>23,24 Valsartan 40 /C16</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>M3/C16</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>M1/C16</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Système d'alimenataion de tubes blister</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>M10/C16</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>M11/C16</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>M12/C16</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T13" t="n">
-        <v>2.2</v>
       </c>
     </row>
     <row r="14">
@@ -1605,66 +1605,66 @@
       <c r="G14" t="n">
         <v>23808</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>PF2045</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>110*85</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>14</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>25,26,29,30, Valsartan 80 / C23</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>M3/C23</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>M1/C23</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>M27/C23</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>M10/C22</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>M11/C23</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>M12/C23</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T14" t="n">
-        <v>7.45</v>
       </c>
     </row>
     <row r="15">
@@ -1697,66 +1697,66 @@
       <c r="G15" t="n">
         <v>18680</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>PF1002</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>81*50</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>34 Flocip 500 /C17</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>M3/C17</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>M1/C17</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t xml:space="preserve">Boite à brosse </t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>M10/C17</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>M11/C17</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>M12/C17</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T15" t="n">
-        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1789,66 +1789,66 @@
       <c r="G16" t="n">
         <v>52200</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>PF1269</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>10</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>18-20 Fluoxet / C6</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>M3/C6</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>M1/C6</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t xml:space="preserve">Boite à brosse </t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>M10/C17</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>M11/C17</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>M12/C17</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T16" t="n">
-        <v>7.49</v>
       </c>
     </row>
     <row r="17">
@@ -1881,66 +1881,66 @@
       <c r="G17" t="n">
         <v>34800</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>PF3211</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>10</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>18-20 Fluoxet / C6</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>M3/C6</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>M1/C6</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t xml:space="preserve">Boite à brosse </t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>M10/C17</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>M11/C17</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>M12/C17</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T17" t="n">
-        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1973,66 +1973,66 @@
       <c r="G18" t="n">
         <v>8700</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>PF3283</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>10</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>18-20 Fluoxet / C6</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>M3/C6</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>M1/C6</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t xml:space="preserve">Boite à brosse </t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>M10/C17</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>M11/C17</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>M12/C17</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T18" t="n">
-        <v>5.16</v>
       </c>
     </row>
     <row r="19">
@@ -2065,26 +2065,26 @@
       <c r="G19" t="n">
         <v>10714</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>PF3001</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>80*47</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>7</v>
-      </c>
-      <c r="L19" t="n">
-        <v>96</v>
       </c>
       <c r="M19" t="n">
         <v>96</v>
@@ -2092,31 +2092,31 @@
       <c r="N19" t="n">
         <v>96</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" t="n">
+        <v>96</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>BOITE A BROSSE</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
         <v>96</v>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S19" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T19" t="n">
-        <v>1.12</v>
       </c>
     </row>
     <row r="20">
@@ -2149,26 +2149,26 @@
       <c r="G20" t="n">
         <v>10710</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>PF3002</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>80*47</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>7</v>
-      </c>
-      <c r="L20" t="n">
-        <v>96</v>
       </c>
       <c r="M20" t="n">
         <v>96</v>
@@ -2176,31 +2176,31 @@
       <c r="N20" t="n">
         <v>96</v>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" t="n">
+        <v>96</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>BOITE A BROSSE</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>96</v>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S20" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T20" t="n">
-        <v>0.54</v>
       </c>
     </row>
     <row r="21">
@@ -2233,26 +2233,26 @@
       <c r="G21" t="n">
         <v>20000</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>PF2261</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>140*50</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>15</v>
-      </c>
-      <c r="L21" t="n">
-        <v>8</v>
       </c>
       <c r="M21" t="n">
         <v>8</v>
@@ -2260,31 +2260,31 @@
       <c r="N21" t="n">
         <v>8</v>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" t="n">
+        <v>8</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>BOITE A BROSSE</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>8</v>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S21" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T21" t="n">
-        <v>5.66</v>
       </c>
     </row>
     <row r="22">
@@ -2317,26 +2317,26 @@
       <c r="G22" t="n">
         <v>6666</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>PF2262</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>140*50</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>15</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8</v>
       </c>
       <c r="M22" t="n">
         <v>8</v>
@@ -2344,31 +2344,31 @@
       <c r="N22" t="n">
         <v>8</v>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" t="n">
+        <v>8</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>BOITE A BROSSE</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>8</v>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S22" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T22" t="n">
-        <v>7.95</v>
       </c>
     </row>
     <row r="23">
@@ -2396,71 +2396,71 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.700059988002399</v>
+        <v>3.7000599880024</v>
       </c>
       <c r="G23" t="n">
         <v>12336</v>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>PF3493</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>75*42</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>10</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t xml:space="preserve"> ictaves 5mg </t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t xml:space="preserve"> ictaves 5mg </t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t xml:space="preserve">ictaves 5mg </t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>MANUELLE</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
           <t xml:space="preserve">ictaves 5mg </t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S23" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
           <t>NOACK</t>
         </is>
-      </c>
-      <c r="T23" t="n">
-        <v>8.74</v>
       </c>
     </row>
     <row r="24">
@@ -2488,71 +2488,71 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.2999400119976005</v>
+        <v>0.2999400119976</v>
       </c>
       <c r="G24" t="n">
         <v>1000</v>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>PF3568</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>75*42</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>10</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t xml:space="preserve"> ictaves 5mg </t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t xml:space="preserve"> ictaves 5mg </t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t xml:space="preserve">ictaves 5mg </t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>MANUELLE</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t xml:space="preserve">ictaves 5mg </t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S24" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
           <t>NOACK</t>
         </is>
-      </c>
-      <c r="T24" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="25">
@@ -2585,60 +2585,60 @@
       <c r="G25" t="n">
         <v>27800</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>PF1644</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>88*34.5</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>10</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>760-31450</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>31450</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>31455</v>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>ISONE 5</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
         <v>31450</v>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S25" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
           <t>NOACK</t>
         </is>
-      </c>
-      <c r="T25" t="n">
-        <v>3.05</v>
       </c>
     </row>
     <row r="26">
@@ -2666,71 +2666,71 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.639985599423977</v>
+        <v>1.63998559942398</v>
       </c>
       <c r="G26" t="n">
         <v>13666</v>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>PF2205</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>88*34.5</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>10</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>Inopril Plus 4mg</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="Q26" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S26" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
           <t>NOACK</t>
         </is>
-      </c>
-      <c r="T26" t="n">
-        <v>2.17</v>
       </c>
     </row>
     <row r="27">
@@ -2758,71 +2758,71 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.000240038406145</v>
+        <v>2.00024003840615</v>
       </c>
       <c r="G27" t="n">
         <v>8333</v>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>PF2802</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>124*49</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>10</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>760-36962AL</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>MANUELLE</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
           <t>760-36962AL</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S27" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
           <t>NOACK</t>
         </is>
-      </c>
-      <c r="T27" t="n">
-        <v>1.83</v>
       </c>
     </row>
     <row r="28">
@@ -2855,66 +2855,66 @@
       <c r="G28" t="n">
         <v>3000</v>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>PF3454</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>108*64</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>10</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>Inopril Plus 4mg</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>760-36961AL</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S28" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
           <t>NOACK</t>
         </is>
-      </c>
-      <c r="T28" t="n">
-        <v>1.02</v>
       </c>
     </row>
     <row r="29">
@@ -2947,26 +2947,26 @@
       <c r="G29" t="n">
         <v>95220</v>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>PF2748</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>10</v>
-      </c>
-      <c r="L29" t="n">
-        <v>40</v>
       </c>
       <c r="M29" t="n">
         <v>40</v>
@@ -2977,26 +2977,26 @@
       <c r="O29" t="n">
         <v>40</v>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
+      <c r="P29" t="n">
         <v>40</v>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>40</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T29" t="n">
-        <v>7.32</v>
       </c>
     </row>
     <row r="30">
@@ -3029,26 +3029,26 @@
       <c r="G30" t="n">
         <v>142845</v>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>PF2747</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>10</v>
-      </c>
-      <c r="L30" t="n">
-        <v>39</v>
       </c>
       <c r="M30" t="n">
         <v>39</v>
@@ -3059,26 +3059,26 @@
       <c r="O30" t="n">
         <v>39</v>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
+      <c r="P30" t="n">
         <v>39</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>39</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
           <t>MARCHESINI</t>
         </is>
-      </c>
-      <c r="T30" t="n">
-        <v>9.75</v>
       </c>
     </row>
     <row r="31">
@@ -3106,31 +3106,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.205187440932479</v>
+        <v>2.20518744093248</v>
       </c>
       <c r="G31" t="n">
         <v>21000</v>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>PF3569</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>10</v>
-      </c>
-      <c r="L31" t="n">
-        <v>39</v>
       </c>
       <c r="M31" t="n">
         <v>39</v>
@@ -3141,26 +3141,26 @@
       <c r="O31" t="n">
         <v>39</v>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P31" t="n">
         <v>39</v>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>39</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
           <t>MARCHESINI</t>
         </is>
-      </c>
-      <c r="T31" t="n">
-        <v>4.33</v>
       </c>
     </row>
     <row r="32">
@@ -3195,66 +3195,66 @@
       <c r="G32" t="n">
         <v>29366</v>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>PF0659</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>10</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>11 Mebverine / C11</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>M3/C11</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>M1/C8</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t xml:space="preserve">Boite à brosse </t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>M11/C9</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>M12/C8</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T32" t="n">
-        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3282,15 +3282,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.1362119457876456</v>
+        <v>0.136211945787646</v>
       </c>
       <c r="G33" t="n">
         <v>2000</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H33" t="n">
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -3347,8 +3345,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T33" t="n">
-        <v>6.61</v>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3381,66 +3381,66 @@
       <c r="G34" t="n">
         <v>42000</v>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>PF0963</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>10</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>33 Mediveine / C4</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>M3/C4</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>M1/C4</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>M27/C4</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>M11/C4</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>M12/C4</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T34" t="n">
-        <v>7.96</v>
       </c>
     </row>
     <row r="35">
@@ -3473,66 +3473,66 @@
       <c r="G35" t="n">
         <v>42000</v>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>PF0963</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>10</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>33 Mediveine / C4</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>M3/C4</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>M1/C4</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>M27/C4</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>M11/C4</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>M12/C4</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T35" t="n">
-        <v>0.29</v>
       </c>
     </row>
     <row r="36">
@@ -3565,66 +3565,66 @@
       <c r="G36" t="n">
         <v>6000</v>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>PF2922</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>10</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>33 Mediveine / C4</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>M3/C4</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>M1/C4</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>M27/C4</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>M11/C4</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>M12/C4</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T36" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3657,66 +3657,66 @@
       <c r="G37" t="n">
         <v>6000</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>PF2922</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>10</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>33 Mediveine / C4</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>M3/C4</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>M1/C4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>M27/C4</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>M11/C4</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>M12/C4</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T37" t="n">
-        <v>4.78</v>
       </c>
     </row>
     <row r="38">
@@ -3744,71 +3744,71 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.3058103975535168</v>
+        <v>0.305810397553517</v>
       </c>
       <c r="G38" t="n">
         <v>3000</v>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>PF1992</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>81*50</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>10</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>7,8 Odia 2,3 / C20</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>M3/C20</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>M1/C20</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>M27/C20</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>M10/C17</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>M11/C20</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>M12/C20</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>MARCHESINI</t>
         </is>
-      </c>
-      <c r="T38" t="n">
-        <v>2.88</v>
       </c>
     </row>
     <row r="39">
@@ -3841,66 +3841,66 @@
       <c r="G39" t="n">
         <v>16025</v>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>PF0285</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>10</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>3 Panalgic / C7</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>M3/C7</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>M1/C7</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>M27/C7</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>M11/C7</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>M12/C7</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T39" t="n">
-        <v>5.74</v>
       </c>
     </row>
     <row r="40">
@@ -3933,26 +3933,26 @@
       <c r="G40" t="n">
         <v>10000</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>PF1287</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>10</v>
-      </c>
-      <c r="L40" t="n">
-        <v>150</v>
       </c>
       <c r="M40" t="n">
         <v>150</v>
@@ -3963,26 +3963,26 @@
       <c r="O40" t="n">
         <v>150</v>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
+      <c r="P40" t="n">
         <v>150</v>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>150</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T40" t="n">
-        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -4015,10 +4015,8 @@
       <c r="G41" t="n">
         <v>24750</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H41" t="n">
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -4075,8 +4073,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T41" t="n">
-        <v>2.6</v>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -4109,10 +4109,8 @@
       <c r="G42" t="n">
         <v>16998</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H42" t="n">
+        <v>6</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -4169,8 +4167,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T42" t="n">
-        <v>7.85</v>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -4198,15 +4198,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9000900090009001</v>
+        <v>0.9000900090009</v>
       </c>
       <c r="G43" t="n">
         <v>3000</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H43" t="n">
+        <v>3</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -4263,8 +4261,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T43" t="n">
-        <v>4.55</v>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -4297,10 +4297,8 @@
       <c r="G44" t="n">
         <v>2500</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H44" t="n">
+        <v>6</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -4357,8 +4355,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T44" t="n">
-        <v>3.32</v>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -4386,15 +4386,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>4.745254745254745</v>
+        <v>4.74525474525475</v>
       </c>
       <c r="G45" t="n">
         <v>4750</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H45" t="n">
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -4451,8 +4449,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T45" t="n">
-        <v>6.53</v>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -4487,10 +4487,8 @@
       <c r="G46" t="n">
         <v>0</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H46" t="n">
+        <v>9</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4547,8 +4545,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T46" t="n">
-        <v>7.62</v>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -4576,15 +4576,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6.326673326673327</v>
+        <v>6.32667332667333</v>
       </c>
       <c r="G47" t="n">
         <v>6333</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H47" t="n">
+        <v>8</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -4641,8 +4639,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T47" t="n">
-        <v>5.54</v>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4672,15 +4672,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.2400096003840154</v>
+        <v>0.240009600384015</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H48" t="n">
+        <v>3</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -4737,8 +4735,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T48" t="n">
-        <v>7.01</v>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4773,10 +4773,8 @@
       <c r="G49" t="n">
         <v>4166</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H49" t="n">
+        <v>6</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -4833,8 +4831,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T49" t="n">
-        <v>7.29</v>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4869,10 +4869,8 @@
       <c r="G50" t="n">
         <v>2777</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H50" t="n">
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -4929,8 +4927,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T50" t="n">
-        <v>7.22</v>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4960,15 +4960,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.2167786689789725</v>
+        <v>0.216778668978972</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H51" t="n">
+        <v>6</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -5025,8 +5023,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T51" t="n">
-        <v>6.58</v>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -5061,10 +5061,8 @@
       <c r="G52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H52" t="n">
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -5121,8 +5119,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T52" t="n">
-        <v>8.029999999999999</v>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -5150,15 +5150,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>15.24175824175824</v>
+        <v>15.2417582417582</v>
       </c>
       <c r="G53" t="n">
         <v>15257</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H53" t="n">
+        <v>4</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -5215,8 +5213,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T53" t="n">
-        <v>6.43</v>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -5246,15 +5246,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.5782017924255565</v>
+        <v>0.578201792425557</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H54" t="n">
+        <v>8</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -5311,8 +5309,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T54" t="n">
-        <v>8.710000000000001</v>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -5345,66 +5345,66 @@
       <c r="G55" t="n">
         <v>31584</v>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>PF0533</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>10</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>1,2 Stagid / C8</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>M3/C8</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>M1/C8</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>M27/C8</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>M11/C8</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>M12/C8</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T55" t="n">
-        <v>3.43</v>
       </c>
     </row>
     <row r="56">
@@ -5432,71 +5432,71 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>34.96303696303696</v>
+        <v>34.963036963037</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>PF4367</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>10</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>17 Digestine / C5</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>M3/C5</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>M1/C4</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t xml:space="preserve">Boite à brosse </t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>M11/C5</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>M12/C4</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T56" t="n">
-        <v>6.58</v>
       </c>
     </row>
     <row r="57">
@@ -5529,66 +5529,66 @@
       <c r="G57" t="n">
         <v>42420</v>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>PF0597</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>10</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>15 Urispas / C10</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>M3/C10</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>M1/C8</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t xml:space="preserve">Boite à brosse </t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>M11/C9</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>M12/C8</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T57" t="n">
-        <v>6.27</v>
       </c>
     </row>
     <row r="58">
@@ -5616,71 +5616,71 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.4160166406656266</v>
+        <v>0.416016640665627</v>
       </c>
       <c r="G58" t="n">
         <v>4000</v>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>PF2941</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>110*85</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>14</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>27,28 Valsartan 160 / C22</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>M3/C22</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>M1/C22</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>M27/C22</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>M10/C22</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>M11/C22</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>M12/C22</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T58" t="n">
-        <v>5.47</v>
       </c>
     </row>
     <row r="59">
@@ -5708,71 +5708,71 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.583940087372582</v>
+        <v>2.58394008737258</v>
       </c>
       <c r="G59" t="n">
         <v>12421</v>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>PF2268</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>110*85</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>14</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>27,28 Valsartan 160 / C22</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>M3/C22</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>M1/C22</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>M27/C22</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>M10/C22</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>M11/C22</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>M12/C22</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T59" t="n">
-        <v>3.63</v>
       </c>
     </row>
     <row r="60">
@@ -5800,31 +5800,31 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.1489369624306512</v>
+        <v>0.148936962430651</v>
       </c>
       <c r="G60" t="n">
         <v>4000</v>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>PF2815</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>14</v>
-      </c>
-      <c r="L60" t="n">
-        <v>148</v>
       </c>
       <c r="M60" t="n">
         <v>148</v>
@@ -5835,26 +5835,26 @@
       <c r="O60" t="n">
         <v>148</v>
       </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q60" t="n">
+      <c r="P60" t="n">
         <v>148</v>
       </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>148</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T60" t="n">
-        <v>3.29</v>
       </c>
     </row>
     <row r="61">
@@ -5882,31 +5882,31 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.851057491808162</v>
+        <v>1.85105749180816</v>
       </c>
       <c r="G61" t="n">
         <v>24856</v>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>PF2812</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>14</v>
-      </c>
-      <c r="L61" t="n">
-        <v>148</v>
       </c>
       <c r="M61" t="n">
         <v>148</v>
@@ -5917,26 +5917,26 @@
       <c r="O61" t="n">
         <v>148</v>
       </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q61" t="n">
+      <c r="P61" t="n">
         <v>148</v>
       </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>148</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T61" t="n">
-        <v>3.49</v>
       </c>
     </row>
     <row r="62">
@@ -5969,26 +5969,26 @@
       <c r="G62" t="n">
         <v>26856</v>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>PF2814</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>14</v>
-      </c>
-      <c r="L62" t="n">
-        <v>146</v>
       </c>
       <c r="M62" t="n">
         <v>146</v>
@@ -5999,26 +5999,26 @@
       <c r="O62" t="n">
         <v>146</v>
       </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q62" t="n">
+      <c r="P62" t="n">
         <v>146</v>
       </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>146</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T62" t="n">
-        <v>2.16</v>
       </c>
     </row>
     <row r="63">
@@ -6051,60 +6051,60 @@
       <c r="G63" t="n">
         <v>20833</v>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>PF1384</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>88*34.5</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>10</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>760-31450</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>31450</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>31455</v>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>ISONE 5</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q63" t="n">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
         <v>31450</v>
       </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S63" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
           <t>NOACK</t>
         </is>
-      </c>
-      <c r="T63" t="n">
-        <v>6.7</v>
       </c>
     </row>
     <row r="64">
@@ -6137,66 +6137,66 @@
       <c r="G64" t="n">
         <v>10713</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>PF3109</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>110*85</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>14</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>25,26,29,30, Valsartan 80 / C23</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>M3/C23</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>M1/C23</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>M27/C23</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>M10/C22</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>M11/C23</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>M12/C23</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T64" t="n">
-        <v>6.28</v>
       </c>
     </row>
     <row r="65">
@@ -6229,66 +6229,66 @@
       <c r="G65" t="n">
         <v>3571</v>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>PF3114</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>110*85</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>14</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>27,28 Valsartan 160 / C22</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>M3/C22</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>M1/C22</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>M27/C22</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>M10/C22</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>M11/C22</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>M12/C22</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T65" t="n">
-        <v>0.97</v>
       </c>
     </row>
     <row r="66">
@@ -6321,66 +6321,66 @@
       <c r="G66" t="n">
         <v>3571</v>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>PF3112</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>110*85</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>14</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>27,28 Valsartan 160 / C22</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>M3/C22</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>M1/C22</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>M27/C22</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>M10/C22</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>M11/C22</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>M12/C22</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T66" t="n">
-        <v>8.85</v>
       </c>
     </row>
     <row r="67">
@@ -6413,66 +6413,66 @@
       <c r="G67" t="n">
         <v>3571</v>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>PF3113</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>ALU/ALU</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>110*85</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>14</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>27,28 Valsartan 160 / C22</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>M3/C22</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>M1/C22</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>M27/C22</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>M10/C22</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>M11/C22</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>M12/C22</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T67" t="n">
-        <v>9.75</v>
       </c>
     </row>
     <row r="68">
@@ -6505,34 +6505,32 @@
       <c r="G68" t="n">
         <v>16800</v>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>PF3250</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>7</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t xml:space="preserve">ZENETIAMET 50/1000MG </t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>Non disponible</t>
@@ -6560,11 +6558,13 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T68" t="n">
-        <v>6.86</v>
       </c>
     </row>
     <row r="69">
@@ -6597,34 +6597,32 @@
       <c r="G69" t="n">
         <v>33600</v>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>PF4040</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>7</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t xml:space="preserve">ZENETIAMET 50/1000MG </t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="N69" t="inlineStr">
         <is>
           <t>Non disponible</t>
@@ -6652,11 +6650,13 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T69" t="n">
-        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="70">
@@ -6689,60 +6689,60 @@
       <c r="G70" t="n">
         <v>76008</v>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>PF1908</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>88*34.5</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>10</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>760-31454</t>
         </is>
-      </c>
-      <c r="M70" t="n">
-        <v>31454</v>
       </c>
       <c r="N70" t="n">
         <v>31454</v>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="O70" t="n">
+        <v>31454</v>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>MANUELLE</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
         <v>31449</v>
       </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S70" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
           <t>NOACK</t>
         </is>
-      </c>
-      <c r="T70" t="n">
-        <v>7.38</v>
       </c>
     </row>
     <row r="71">
@@ -6775,26 +6775,26 @@
       <c r="G71" t="n">
         <v>30160</v>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>PF1910</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>14</v>
-      </c>
-      <c r="L71" t="n">
-        <v>143</v>
       </c>
       <c r="M71" t="n">
         <v>143</v>
@@ -6805,26 +6805,26 @@
       <c r="O71" t="n">
         <v>143</v>
       </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q71" t="n">
+      <c r="P71" t="n">
         <v>143</v>
       </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>143</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T71" t="n">
-        <v>6.93</v>
       </c>
     </row>
     <row r="72">
@@ -6859,66 +6859,66 @@
       <c r="G72" t="n">
         <v>37500</v>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>PF0656</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>10</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>17 Digestine / C5</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>M3/C5</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>M1/C4</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>M27/C5</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>M11/C5</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>M12/C4</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T72" t="n">
-        <v>4.37</v>
       </c>
     </row>
     <row r="73">
@@ -6951,26 +6951,26 @@
       <c r="G73" t="n">
         <v>81158</v>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>PF0706</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>80*47</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>15</v>
-      </c>
-      <c r="L73" t="n">
-        <v>151</v>
       </c>
       <c r="M73" t="n">
         <v>151</v>
@@ -6981,26 +6981,26 @@
       <c r="O73" t="n">
         <v>151</v>
       </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q73" t="n">
+      <c r="P73" t="n">
         <v>151</v>
       </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>151</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T73" t="n">
-        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="74">
@@ -7033,26 +7033,26 @@
       <c r="G74" t="n">
         <v>3568</v>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>PF3409</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>7</v>
-      </c>
-      <c r="L74" t="n">
-        <v>145</v>
       </c>
       <c r="M74" t="n">
         <v>145</v>
@@ -7060,31 +7060,31 @@
       <c r="N74" t="n">
         <v>145</v>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="O74" t="n">
+        <v>145</v>
+      </c>
+      <c r="P74" t="inlineStr">
         <is>
           <t>BOITE A BROSSE</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q74" t="n">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
         <v>145</v>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S74" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T74" t="n">
-        <v>9.24</v>
       </c>
     </row>
     <row r="75">
@@ -7117,26 +7117,26 @@
       <c r="G75" t="n">
         <v>1785</v>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>PF3003</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>ALU/PVC</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>7</v>
-      </c>
-      <c r="L75" t="n">
-        <v>145</v>
       </c>
       <c r="M75" t="n">
         <v>145</v>
@@ -7144,31 +7144,31 @@
       <c r="N75" t="n">
         <v>145</v>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="O75" t="n">
+        <v>145</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>BOITE A BROSSE</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
-      <c r="Q75" t="n">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
         <v>145</v>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
-      </c>
       <c r="S75" t="inlineStr">
         <is>
+          <t>Non disponible</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
           <t>ROMACO</t>
         </is>
-      </c>
-      <c r="T75" t="n">
-        <v>1.11</v>
       </c>
     </row>
     <row r="76">
@@ -7196,71 +7196,71 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.711981566820277</v>
+        <v>2.71198156682028</v>
       </c>
       <c r="G76" t="n">
         <v>18832</v>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>PF3860</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>10</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>11 Mebverine / C11</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>M3/C11</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>M1/C8</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>MANUELLE</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>M11/C9</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>M12/C8</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T76" t="n">
-        <v>6.58</v>
       </c>
     </row>
     <row r="77">
@@ -7288,71 +7288,71 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.288018433179724</v>
+        <v>1.28801843317972</v>
       </c>
       <c r="G77" t="n">
         <v>4472</v>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>PF3193</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>10</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>11 Mebverine / C11</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>M3/C11</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>M1/C8</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>MANUELLE</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>M11/C9</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>M12/C8</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T77" t="n">
-        <v>2.41</v>
       </c>
     </row>
     <row r="78">
@@ -7385,66 +7385,66 @@
       <c r="G78" t="n">
         <v>3628</v>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>PF3861</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>10</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>15 Urispas / C10</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>M3/C10</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>M1/C8</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>MANUELLE</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>M11/C9</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>M12/C8</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T78" t="n">
-        <v>6.25</v>
       </c>
     </row>
     <row r="79">
@@ -7477,66 +7477,66 @@
       <c r="G79" t="n">
         <v>500</v>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>PF3194</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>10</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>15 Urispas / C10</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>M3/C10</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>M1/C8</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>MANUELLE</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>M11/C9</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>M12/C8</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T79" t="n">
-        <v>8.85</v>
       </c>
     </row>
     <row r="80">
@@ -7569,66 +7569,66 @@
       <c r="G80" t="n">
         <v>2315</v>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>PF3863</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>ALU/PVDC</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>107*65</t>
         </is>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>10</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>33 Mediveine / C4</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>M3/C4</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>M1/C4</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>MANUELLE</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>M10/C1</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>M11/C4</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>M12/C4</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>HOONGA</t>
         </is>
-      </c>
-      <c r="T80" t="n">
-        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="81">
@@ -7658,15 +7658,13 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.3000854944428612</v>
+        <v>0.300085494442861</v>
       </c>
       <c r="G81" t="n">
         <v>3159</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H81" t="n">
+        <v>6</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -7723,8 +7721,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T81" t="n">
-        <v>2.5</v>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -7754,15 +7754,13 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.699914505557139</v>
+        <v>1.69991450555714</v>
       </c>
       <c r="G82" t="n">
         <v>5965</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H82" t="n">
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -7819,8 +7817,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T82" t="n">
-        <v>7.57</v>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -7853,10 +7853,8 @@
       <c r="G83" t="n">
         <v>186800</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H83" t="n">
+        <v>6</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -7913,8 +7911,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T83" t="n">
-        <v>9.470000000000001</v>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -7942,15 +7942,13 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8.000672043010752</v>
+        <v>8.00067204301075</v>
       </c>
       <c r="G84" t="n">
         <v>666680</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H84" t="n">
+        <v>7</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -8007,8 +8005,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T84" t="n">
-        <v>8.130000000000001</v>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -8036,15 +8036,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4.008040257513143</v>
+        <v>4.00804025751314</v>
       </c>
       <c r="G85" t="n">
         <v>3991960</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H85" t="n">
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -8101,8 +8099,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T85" t="n">
-        <v>9.59</v>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -8135,10 +8135,8 @@
       <c r="G86" t="n">
         <v>210540</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H86" t="n">
+        <v>10</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -8195,8 +8193,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T86" t="n">
-        <v>8.49</v>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -8224,15 +8224,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4.000384024577573</v>
+        <v>4.00038402457757</v>
       </c>
       <c r="G87" t="n">
         <v>625020</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H87" t="n">
+        <v>5</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -8289,8 +8287,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T87" t="n">
-        <v>6.39</v>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -8323,10 +8323,8 @@
       <c r="G88" t="n">
         <v>751968</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H88" t="n">
+        <v>8</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -8383,8 +8381,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T88" t="n">
-        <v>9.140000000000001</v>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -8417,10 +8417,8 @@
       <c r="G89" t="n">
         <v>751996</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H89" t="n">
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -8477,8 +8475,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T89" t="n">
-        <v>7.74</v>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -8511,10 +8511,8 @@
       <c r="G90" t="n">
         <v>563976</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H90" t="n">
+        <v>8</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -8571,8 +8569,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T90" t="n">
-        <v>3.79</v>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -8605,10 +8605,8 @@
       <c r="G91" t="n">
         <v>36</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H91" t="n">
+        <v>8</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -8665,8 +8663,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T91" t="n">
-        <v>5.62</v>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -8699,10 +8699,8 @@
       <c r="G92" t="n">
         <v>624960</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H92" t="n">
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -8759,8 +8757,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T92" t="n">
-        <v>2.87</v>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -8793,10 +8793,8 @@
       <c r="G93" t="n">
         <v>510640</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H93" t="n">
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -8853,8 +8851,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T93" t="n">
-        <v>5.24</v>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -8887,10 +8887,8 @@
       <c r="G94" t="n">
         <v>403788</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H94" t="n">
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -8947,8 +8945,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T94" t="n">
-        <v>0.15</v>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -8981,10 +8981,8 @@
       <c r="G95" t="n">
         <v>1272600</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H95" t="n">
+        <v>10</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -9041,8 +9039,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T95" t="n">
-        <v>1.84</v>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -9075,10 +9075,8 @@
       <c r="G96" t="n">
         <v>7896000</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H96" t="n">
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -9135,8 +9133,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T96" t="n">
-        <v>7.95</v>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -9169,10 +9169,8 @@
       <c r="G97" t="n">
         <v>249984</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H97" t="n">
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -9229,8 +9227,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T97" t="n">
-        <v>8.93</v>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -9263,10 +9263,8 @@
       <c r="G98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H98" t="n">
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -9323,8 +9321,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T98" t="n">
-        <v>9.199999999999999</v>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -9357,10 +9357,8 @@
       <c r="G99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H99" t="n">
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -9417,8 +9415,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T99" t="n">
-        <v>1.71</v>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -9451,10 +9451,8 @@
       <c r="G100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H100" t="n">
+        <v>7</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -9511,8 +9509,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T100" t="n">
-        <v>6.97</v>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -9545,10 +9545,8 @@
       <c r="G101" t="n">
         <v>0</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H101" t="n">
+        <v>8</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -9605,8 +9603,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T101" t="n">
-        <v>2.86</v>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="102">
@@ -9639,10 +9639,8 @@
       <c r="G102" t="n">
         <v>0</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H102" t="n">
+        <v>7</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -9699,8 +9697,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T102" t="n">
-        <v>2.7</v>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -9733,10 +9733,8 @@
       <c r="G103" t="n">
         <v>750000</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H103" t="n">
+        <v>10</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -9793,8 +9791,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T103" t="n">
-        <v>2.38</v>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -9827,10 +9827,8 @@
       <c r="G104" t="n">
         <v>100000</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H104" t="n">
+        <v>9</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -9887,8 +9885,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T104" t="n">
-        <v>1.96</v>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -9921,10 +9921,8 @@
       <c r="G105" t="n">
         <v>256400</v>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H105" t="n">
+        <v>7</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -9981,8 +9979,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T105" t="n">
-        <v>3.65</v>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -10015,10 +10015,8 @@
       <c r="G106" t="n">
         <v>1125000</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H106" t="n">
+        <v>7</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -10075,8 +10073,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T106" t="n">
-        <v>2.35</v>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -10109,10 +10109,8 @@
       <c r="G107" t="n">
         <v>300000</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H107" t="n">
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -10169,8 +10167,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T107" t="n">
-        <v>1.46</v>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -10203,10 +10203,8 @@
       <c r="G108" t="n">
         <v>0</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H108" t="n">
+        <v>9</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -10263,8 +10261,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T108" t="n">
-        <v>4.59</v>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -10297,10 +10297,8 @@
       <c r="G109" t="n">
         <v>180000</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H109" t="n">
+        <v>9</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -10357,8 +10355,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T109" t="n">
-        <v>3.16</v>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -10391,10 +10391,8 @@
       <c r="G110" t="n">
         <v>1440000</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H110" t="n">
+        <v>8</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -10451,8 +10449,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T110" t="n">
-        <v>6.64</v>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -10485,10 +10485,8 @@
       <c r="G111" t="n">
         <v>880980</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H111" t="n">
+        <v>5</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -10545,8 +10543,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T111" t="n">
-        <v>2.01</v>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="112">
@@ -10579,10 +10579,8 @@
       <c r="G112" t="n">
         <v>90</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H112" t="n">
+        <v>8</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -10639,8 +10637,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T112" t="n">
-        <v>9.6</v>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -10673,10 +10673,8 @@
       <c r="G113" t="n">
         <v>75.06</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H113" t="n">
+        <v>5</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -10733,8 +10731,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T113" t="n">
-        <v>7.44</v>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -10767,10 +10767,8 @@
       <c r="G114" t="n">
         <v>40008</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H114" t="n">
+        <v>4</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -10827,8 +10825,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T114" t="n">
-        <v>9.4</v>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -10861,10 +10861,8 @@
       <c r="G115" t="n">
         <v>240</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H115" t="n">
+        <v>3</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -10921,8 +10919,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T115" t="n">
-        <v>7.82</v>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -10955,10 +10955,8 @@
       <c r="G116" t="n">
         <v>99988</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H116" t="n">
+        <v>5</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -11015,8 +11013,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T116" t="n">
-        <v>8.17</v>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -11049,10 +11049,8 @@
       <c r="G117" t="n">
         <v>100000</v>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H117" t="n">
+        <v>3</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -11109,8 +11107,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T117" t="n">
-        <v>6.69</v>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="118">
@@ -11143,10 +11143,8 @@
       <c r="G118" t="n">
         <v>3132000</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H118" t="n">
+        <v>6</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -11203,8 +11201,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T118" t="n">
-        <v>3.2</v>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -11237,10 +11237,8 @@
       <c r="G119" t="n">
         <v>100000</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H119" t="n">
+        <v>8</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -11297,8 +11295,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T119" t="n">
-        <v>2.6</v>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -11331,10 +11331,8 @@
       <c r="G120" t="n">
         <v>15</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H120" t="n">
+        <v>6</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -11391,8 +11389,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T120" t="n">
-        <v>1.26</v>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="121">
@@ -11425,10 +11425,8 @@
       <c r="G121" t="n">
         <v>70.5</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H121" t="n">
+        <v>4</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -11485,8 +11483,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T121" t="n">
-        <v>0.75</v>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="122">
@@ -11519,10 +11519,8 @@
       <c r="G122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H122" t="n">
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -11579,8 +11577,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T122" t="n">
-        <v>0.8</v>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -11613,10 +11613,8 @@
       <c r="G123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H123" t="n">
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -11673,8 +11671,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T123" t="n">
-        <v>6.03</v>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
     <row r="124">
@@ -11707,10 +11707,8 @@
       <c r="G124" t="n">
         <v>30</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Non disponible</t>
-        </is>
+      <c r="H124" t="n">
+        <v>1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -11767,8 +11765,10 @@
           <t>Non disponible</t>
         </is>
       </c>
-      <c r="T124" t="n">
-        <v>7.28</v>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Non disponible</t>
+        </is>
       </c>
     </row>
   </sheetData>
